--- a/Praktikum Sample Tracking.xlsx
+++ b/Praktikum Sample Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reena/Documents/Leipzig Zoo Praktikum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A905C0-94A9-0243-A12B-7709245B97D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ECF49A-F76A-E34D-BBC9-04E4DC98C344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="20960" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
   <si>
     <t>Sample ID</t>
   </si>
@@ -268,6 +268,9 @@
     <t>046</t>
   </si>
   <si>
+    <t>Sandra</t>
+  </si>
+  <si>
     <t>047</t>
   </si>
   <si>
@@ -280,14 +283,53 @@
     <t>Tai</t>
   </si>
   <si>
-    <t>Sandra</t>
+    <t>050</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>Frankje</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>Swela</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>Bambam</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>Jeudi</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +359,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -331,7 +385,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -341,35 +395,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -387,11 +430,19 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1426,9 +1477,9 @@
         <v>81</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
         <v>43</v>
       </c>
       <c r="D47" s="9">
@@ -1440,7 +1491,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>42</v>
@@ -1457,7 +1508,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>20</v>
@@ -1474,10 +1525,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>43</v>
@@ -1490,10 +1541,157 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="4"/>
+      <c r="A51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45755</v>
+      </c>
+      <c r="E51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="12">
+        <v>45760</v>
+      </c>
+      <c r="E52" s="13">
+        <v>0.30208333333333331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="12">
+        <v>45761</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="12">
+        <v>45764</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="12">
+        <v>45765</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="12">
+        <v>45764</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="4">
+        <v>45777</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="15">
+        <v>45786</v>
+      </c>
+      <c r="E58" s="16">
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="15">
+        <v>45789</v>
+      </c>
+      <c r="E59" s="16">
+        <v>0.3263888888888889</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E32">
